--- a/datas/workbook.xlsx
+++ b/datas/workbook.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF01412-4BF7-4529-9E7D-B4E663D0DAD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB48A21-C115-4426-B174-A87519DB9C92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>北区库房</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -31,51 +28,9 @@
     <t>商品名称 </t>
   </si>
   <si>
-    <t>采购单编号 </t>
-  </si>
-  <si>
-    <t>采购规格 </t>
-  </si>
-  <si>
     <t>包装单位 </t>
   </si>
   <si>
-    <t>备注 </t>
-  </si>
-  <si>
-    <t>采购数量 </t>
-  </si>
-  <si>
-    <t>鑫惠达芥末粉</t>
-  </si>
-  <si>
-    <t>P20180908D2</t>
-  </si>
-  <si>
-    <t>500g/袋</t>
-  </si>
-  <si>
-    <t>袋</t>
-  </si>
-  <si>
-    <t>本乡富强粉</t>
-  </si>
-  <si>
-    <t>南区库房</t>
-  </si>
-  <si>
-    <t>本乡特精粉</t>
-  </si>
-  <si>
-    <t>P20180918D1</t>
-  </si>
-  <si>
-    <t>1kg/公斤</t>
-  </si>
-  <si>
-    <t>公斤</t>
-  </si>
-  <si>
     <t>经办人（签名）：</t>
   </si>
   <si>
@@ -85,21 +40,83 @@
     <t>审批人（签名）：</t>
   </si>
   <si>
-    <t>采购单位:北京本乡良实面业有限公司</t>
-  </si>
-  <si>
-    <t> 打印时间：2018/9/19 下午2:25:35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P20180911D4</t>
+    <t>结算单打印</t>
+  </si>
+  <si>
+    <t> 打印时间：2018/5/8 下午2:18:16</t>
+  </si>
+  <si>
+    <t>总金额：7030.00</t>
+  </si>
+  <si>
+    <t>北京兴业泰利贸易有限公司</t>
+  </si>
+  <si>
+    <t>审核单号 </t>
+  </si>
+  <si>
+    <t>批次</t>
+  </si>
+  <si>
+    <t>I20180502D2</t>
+  </si>
+  <si>
+    <t>入库数量 </t>
+  </si>
+  <si>
+    <t>商品规格 </t>
+  </si>
+  <si>
+    <t>单价 </t>
+  </si>
+  <si>
+    <t>小计 </t>
+  </si>
+  <si>
+    <t>1000方餐盒</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>未设置</t>
+  </si>
+  <si>
+    <t>I20180502D3</t>
+  </si>
+  <si>
+    <t>北京华圣明珠商贸有限公司</t>
+  </si>
+  <si>
+    <t>I20180502D1</t>
+  </si>
+  <si>
+    <t>巴沙龙利鱼</t>
+  </si>
+  <si>
+    <t>I20180502D4</t>
+  </si>
+  <si>
+    <t>北京果美轩商贸有限公司</t>
+  </si>
+  <si>
+    <t>I20180502D5</t>
+  </si>
+  <si>
+    <t>北海贝</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>草虾</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,24 +157,351 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -165,14 +509,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -181,30 +856,137 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8F6D075F-B714-4891-99C9-E56761DF3614}"/>
+    <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,272 +1264,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>143</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>144</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17">
+        <v>100</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19">
+        <v>11</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>142</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="17">
+        <v>10</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="19">
+        <v>22</v>
+      </c>
+      <c r="G26" s="20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="17">
+        <v>100</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="19">
+        <v>22</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6">
+        <v>141</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>1</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="19">
+        <v>33</v>
+      </c>
+      <c r="G38" s="20">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
+        <v>2</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="23">
+        <v>100</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
+  <mergeCells count="19">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A32:G33"/>
     <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A20:G21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
